--- a/dataset/Java_3_filtered_projects.xlsx
+++ b/dataset/Java_3_filtered_projects.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -53,23 +53,90 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -549,7 +616,7 @@
           <t>:books: Tech Interview Guide 技术面试必备基础知识、Leetcode 题解、Java、C++、Python、后端面试、操作系统、计算机网络、系统设计</t>
         </is>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -625,7 +692,7 @@
           <t>【Java学习+面试指南】 一份涵盖大部分Java程序员所需要掌握的核心知识。</t>
         </is>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -701,8 +768,10 @@
           <t>Design patterns implemented in Java</t>
         </is>
       </c>
-      <c r="V4" t="n">
-        <v>83</v>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -777,7 +846,7 @@
           <t>Open Source, Distributed, RESTful Search Engine</t>
         </is>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -853,7 +922,7 @@
           <t>Demonstrate all the questions on LeetCode in the form of animation.（用动画的形式呈现解LeetCode题目的思路）</t>
         </is>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -929,7 +998,7 @@
           <t>Spring Boot</t>
         </is>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1005,8 +1074,8 @@
           <t>RxJava – Reactive Extensions for the JVM – a library for composing asynchronous and event-based programs using observable sequences for the Java VM.</t>
         </is>
       </c>
-      <c r="V8" t="n">
-        <v>98.98999999999999</v>
+      <c r="V8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1081,7 +1150,7 @@
           <t>Everything you need to know to get the job.</t>
         </is>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1157,7 +1226,7 @@
           <t>An HTTP client for Android, Kotlin, and Java.</t>
         </is>
       </c>
-      <c r="V10" t="n">
+      <c r="V10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1233,7 +1302,7 @@
           <t>Google core libraries for Java</t>
         </is>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1309,7 +1378,7 @@
           <t>Type-safe HTTP client for Android and Java by Square, Inc.</t>
         </is>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1385,7 +1454,7 @@
           <t>Spring Framework</t>
         </is>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1461,7 +1530,7 @@
           <t>😮 互联网 Java 工程师进阶知识完全扫盲：涵盖高并发、分布式、高可用、微服务等领域知识，后端同学必看，前端同学也可学习</t>
         </is>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1537,8 +1606,8 @@
           <t>Apache Dubbo is a high-performance, java based, open source RPC framework.</t>
         </is>
       </c>
-      <c r="V15" t="n">
-        <v>67.28</v>
+      <c r="V15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1613,7 +1682,7 @@
           <t>A powerful 🚀 Android chart view / graph view library, supporting line- bar- pie- radar- bubble- and candlestick charts as well as scaling, dragging and animations.</t>
         </is>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1689,8 +1758,10 @@
           <t>An image loading and caching library for Android focused on smooth scrolling</t>
         </is>
       </c>
-      <c r="V17" t="n">
-        <v>75</v>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1765,7 +1836,7 @@
           <t>Render After Effects animations natively on Android and iOS, Web, and React Native</t>
         </is>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1841,7 +1912,7 @@
           <t>http下载工具，基于http代理，支持多连接分块下载</t>
         </is>
       </c>
-      <c r="V19" t="n">
+      <c r="V19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1917,7 +1988,7 @@
           <t>:fire: Android developers should collect the following utils(updating).</t>
         </is>
       </c>
-      <c r="V20" t="n">
+      <c r="V20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1993,7 +2064,7 @@
           <t>Bind Android views and callbacks to fields and methods.</t>
         </is>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2069,8 +2140,8 @@
           <t>ZXing ("Zebra Crossing") barcode scanning library for Java, Android</t>
         </is>
       </c>
-      <c r="V22" t="n">
-        <v>74.19</v>
+      <c r="V22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2145,7 +2216,7 @@
           <t>mall项目是一套电商系统，包括前台商城系统及后台管理系统，基于SpringBoot+MyBatis实现。 前台商城系统包含首页门户、商品推荐、商品搜索、商品展示、购物车、订单流程、会员中心、客户服务、帮助中心等模块。 后台管理系统包含商品管理、订单管理、会员管理、促销管理、运营管理、内容管理、统计报表、财务管理、权限管理、设置等模块。</t>
         </is>
       </c>
-      <c r="V23" t="n">
+      <c r="V23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2221,7 +2292,7 @@
           <t xml:space="preserve">👨‍🎓 Java Core Sprout : basic, concurrent, algorithm </t>
         </is>
       </c>
-      <c r="V24" t="n">
+      <c r="V24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2297,7 +2368,7 @@
           <t>Event bus for Android and Java that simplifies communication between Activities, Fragments, Threads, Services, etc. Less code, better quality.</t>
         </is>
       </c>
-      <c r="V25" t="n">
+      <c r="V25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2373,7 +2444,7 @@
           <t>Netty project - an event-driven asynchronous network application framework</t>
         </is>
       </c>
-      <c r="V26" t="n">
+      <c r="V26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2449,8 +2520,10 @@
           <t>Dex to Java decompiler</t>
         </is>
       </c>
-      <c r="V27" t="n">
-        <v>73</v>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2525,8 +2598,8 @@
           <t xml:space="preserve">:bullettrain_side: A fast JSON parser/generator for Java. (Aliyun Data Lake Analytics https://www.aliyun.com/product/datalakeanalytics powered by fastjson ) </t>
         </is>
       </c>
-      <c r="V28" t="n">
-        <v>71.27</v>
+      <c r="V28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2601,7 +2674,7 @@
           <t xml:space="preserve">about learning Spring Boot via examples. Spring Boot 教程、技术栈示例代码，快速简单上手教程。 </t>
         </is>
       </c>
-      <c r="V29" t="n">
+      <c r="V29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2677,7 +2750,7 @@
           <t>🔥下拉刷新、上拉加载、二级刷新、淘宝二楼、RefreshLayout、OverScroll，Android智能下拉刷新框架，支持越界回弹、越界拖动，具有极强的扩展性，集成了几十种炫酷的Header和 Footer。</t>
         </is>
       </c>
-      <c r="V30" t="n">
+      <c r="V30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2753,7 +2826,7 @@
           <t xml:space="preserve">阿里巴巴数据库事业部出品，为监控而生的数据库连接池。阿里云Data Lake Analytics(https://www.aliyun.com/product/datalakeanalytics )、DRDS、TDDL 连接池powered by Druid </t>
         </is>
       </c>
-      <c r="V31" t="n">
+      <c r="V31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2829,7 +2902,7 @@
           <t>RxJava bindings for Android</t>
         </is>
       </c>
-      <c r="V32" t="n">
+      <c r="V32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2905,7 +2978,7 @@
           <t>Alibaba Java Coding Guidelines pmd implements and IDE plugin</t>
         </is>
       </c>
-      <c r="V33" t="n">
+      <c r="V33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2981,7 +3054,7 @@
           <t>BRVAH:Powerful and flexible RecyclerAdapter</t>
         </is>
       </c>
-      <c r="V34" t="n">
+      <c r="V34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3057,7 +3130,7 @@
           <t>Hystrix is a latency and fault tolerance library designed to isolate points of access to remote systems, services and 3rd party libraries, stop cascading failure and enable resilience in complex distributed systems where failure is inevitable.</t>
         </is>
       </c>
-      <c r="V35" t="n">
+      <c r="V35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3133,7 +3206,7 @@
           <t>Ghidra is a software reverse engineering (SRE) framework</t>
         </is>
       </c>
-      <c r="V36" t="n">
+      <c r="V36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3209,8 +3282,10 @@
           <t>Apollo（阿波罗）是携程框架部门研发的分布式配置中心，能够集中化管理应用不同环境、不同集群的配置，配置修改后能够实时推送到应用端，并且具备规范的权限、流程治理等特性，适用于微服务配置管理场景。</t>
         </is>
       </c>
-      <c r="V37" t="n">
-        <v>55</v>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3285,7 +3360,7 @@
           <t>All Algorithms implemented in Java</t>
         </is>
       </c>
-      <c r="V38" t="n">
+      <c r="V38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3361,7 +3436,7 @@
           <t xml:space="preserve">The "REST With Spring" Course: </t>
         </is>
       </c>
-      <c r="V39" t="n">
+      <c r="V39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3437,7 +3512,7 @@
           <t>Alibaba Java Diagnostic Tool Arthas/Alibaba Java诊断利器Arthas</t>
         </is>
       </c>
-      <c r="V40" t="n">
+      <c r="V40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3513,7 +3588,7 @@
           <t>A powerful image downloading and caching library for Android</t>
         </is>
       </c>
-      <c r="V41" t="n">
+      <c r="V41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3589,7 +3664,7 @@
           <t>A Java serialization/deserialization library to convert Java Objects into JSON and back</t>
         </is>
       </c>
-      <c r="V42" t="n">
+      <c r="V42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3665,7 +3740,7 @@
           <t>Powerful and flexible library for loading, caching and displaying images on Android.</t>
         </is>
       </c>
-      <c r="V43" t="n">
+      <c r="V43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3741,7 +3816,7 @@
           <t>Desktop/Android/HTML5/iOS Java game development framework</t>
         </is>
       </c>
-      <c r="V44" t="n">
+      <c r="V44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3817,7 +3892,7 @@
           <t>An Android library for managing images and the memory they use.</t>
         </is>
       </c>
-      <c r="V45" t="n">
+      <c r="V45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3893,7 +3968,7 @@
           <t>A browser automation framework and ecosystem.</t>
         </is>
       </c>
-      <c r="V46" t="n">
+      <c r="V46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3969,7 +4044,7 @@
           <t>自然语言处理 中文分词 词性标注 命名实体识别 依存句法分析 新词发现  关键词短语提取 自动摘要 文本分类聚类 拼音简繁</t>
         </is>
       </c>
-      <c r="V47" t="n">
+      <c r="V47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4045,7 +4120,7 @@
           <t>基于Spring+SpringMVC+Mybatis分布式敏捷开发系统架构，提供整套公共微服务服务模块：集中权限管理（单点登录）、内容管理、支付中心、用户管理（支持第三方登录）、微信平台、存储系统、配置中心、日志分析、任务和通知等，支持服务治理、监控和追踪，努力为中小型企业打造全方位J2EE企业级开发解决方案。</t>
         </is>
       </c>
-      <c r="V48" t="n">
+      <c r="V48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4121,7 +4196,7 @@
           <t>Tinker is a hot-fix solution library for Android, it supports dex, library and resources update without reinstall apk.</t>
         </is>
       </c>
-      <c r="V49" t="n">
+      <c r="V49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4197,7 +4272,7 @@
           <t>An extensible media player for Android</t>
         </is>
       </c>
-      <c r="V50" t="n">
+      <c r="V50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4273,7 +4348,7 @@
           <t>Jenkins automation server</t>
         </is>
       </c>
-      <c r="V51" t="n">
+      <c r="V51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4349,7 +4424,7 @@
           <t>a fast, scalable, multi-language and extensible build system</t>
         </is>
       </c>
-      <c r="V52" t="n">
+      <c r="V52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4425,7 +4500,7 @@
           <t>Telegram for Android source</t>
         </is>
       </c>
-      <c r="V53" t="n">
+      <c r="V53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4501,7 +4576,7 @@
           <t>A circular ImageView for Android</t>
         </is>
       </c>
-      <c r="V54" t="n">
+      <c r="V54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4577,8 +4652,8 @@
           <t>:fire: Seata is an easy-to-use, high-performance, open source distributed transaction solution.</t>
         </is>
       </c>
-      <c r="V55" t="n">
-        <v>42.56</v>
+      <c r="V55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4653,7 +4728,7 @@
           <t>Lottie wrapper for React Native.</t>
         </is>
       </c>
-      <c r="V56" t="n">
+      <c r="V56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4729,8 +4804,10 @@
           <t>MyBatis SQL mapper framework for Java</t>
         </is>
       </c>
-      <c r="V57" t="n">
-        <v>87</v>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4805,7 +4882,7 @@
           <t>A private messenger for Android.</t>
         </is>
       </c>
-      <c r="V58" t="n">
+      <c r="V58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4881,7 +4958,7 @@
           <t xml:space="preserve">视频播放器（IJKplayer、ExoPlayer、MediaPlayer），HTTPS，支持弹幕，支持滤镜、水印、gif截图，片头广告、中间广告，多个同时播放，支持基本的拖动，声音、亮度调节，支持边播边缓存，支持视频自带rotation的旋转（90,270之类），重力旋转与手动旋转的同步支持，支持列表播放 ，列表全屏动画，视频加载速度，列表小窗口支持拖动，动画效果，调整比例，多分辨率切换，支持切换播放器，进度条小窗口预览，列表切换详情页面无缝播放，rtsp、concat、mpeg。 </t>
         </is>
       </c>
-      <c r="V59" t="n">
+      <c r="V59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4957,7 +5034,7 @@
           <t>FizzBuzz Enterprise Edition is a no-nonsense implementation of FizzBuzz made by serious businessmen for serious business purposes.</t>
         </is>
       </c>
-      <c r="V60" t="n">
+      <c r="V60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5033,7 +5110,7 @@
           <t>Zipkin is a distributed tracing system</t>
         </is>
       </c>
-      <c r="V61" t="n">
+      <c r="V61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5109,7 +5186,7 @@
           <t>✔️ Simple, pretty and powerful logger for android</t>
         </is>
       </c>
-      <c r="V62" t="n">
+      <c r="V62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5185,7 +5262,7 @@
           <t>greenDAO is a light &amp; fast ORM solution for Android that maps objects to SQLite databases.</t>
         </is>
       </c>
-      <c r="V63" t="n">
+      <c r="V63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5261,8 +5338,10 @@
           <t>CAT 作为服务端项目基础组件，提供了 Java, C/C++, Node.js, Python, Go 等多语言客户端，已经在美团点评的基础架构中间件框架（MVC框架，RPC框架，数据库框架，缓存框架等，消息队列，配置系统等）深度集成，为美团点评各业务线提供系统丰富的性能指标、健康状况、实时告警等。</t>
         </is>
       </c>
-      <c r="V64" t="n">
-        <v>100</v>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -5337,7 +5416,7 @@
           <t>Stetho is a debug bridge for Android applications, enabling the powerful Chrome Developer Tools and much more.</t>
         </is>
       </c>
-      <c r="V65" t="n">
+      <c r="V65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5413,7 +5492,7 @@
           <t>The Most Powerful Swipe Layout!</t>
         </is>
       </c>
-      <c r="V66" t="n">
+      <c r="V66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5489,7 +5568,7 @@
           <t>High Performance Inter-Thread Messaging Library</t>
         </is>
       </c>
-      <c r="V67" t="n">
+      <c r="V67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5565,8 +5644,10 @@
           <t>光 HikariCP・A solid, high-performance, JDBC connection pool at last.</t>
         </is>
       </c>
-      <c r="V68" t="n">
-        <v>76</v>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -5641,7 +5722,7 @@
           <t>spring boot 实践学习案例，是 spring boot 初学者及核心技术巩固的最佳实践。另外写博客，用 OpenWrite。</t>
         </is>
       </c>
-      <c r="V69" t="n">
+      <c r="V69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5717,7 +5798,7 @@
           <t>Eclipse Deeplearning4j, ND4J, DataVec and more - deep learning &amp; linear algebra for Java/Scala with GPUs + Spark</t>
         </is>
       </c>
-      <c r="V70" t="n">
+      <c r="V70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5793,7 +5874,7 @@
           <t>⭐⭐⭐⭐秒杀系统设计与实现.互联网工程师进阶与分析🙋🐓</t>
         </is>
       </c>
-      <c r="V71" t="n">
+      <c r="V71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5869,7 +5950,7 @@
           <t xml:space="preserve">阿里巴巴 MySQL binlog 增量订阅&amp;消费组件 </t>
         </is>
       </c>
-      <c r="V72" t="n">
+      <c r="V72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5945,7 +6026,7 @@
           <t>Fast Android Development. Easy maintainance.</t>
         </is>
       </c>
-      <c r="V73" t="n">
+      <c r="V73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6021,7 +6102,7 @@
           <t>Redisson - Redis Java client with features of In-Memory Data Grid. Supports over 30 objects and services: Set, Multimap, SortedSet, Map, List, Queue, Deque, Semaphore, Lock, AtomicLong, Map Reduce, Publish / Subscribe, Bloom filter, Spring Cache, Tomcat, Scheduler, JCache API, Hibernate, RPC.</t>
         </is>
       </c>
-      <c r="V74" t="n">
+      <c r="V74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6097,7 +6178,7 @@
           <t>微人事是一个前后端分离的人力资源管理系统，项目采用SpringBoot+Vue开发。</t>
         </is>
       </c>
-      <c r="V75" t="n">
+      <c r="V75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6173,7 +6254,7 @@
           <t>💪 A framework for assisting in the renovation of Android componentization (帮助 Android App 进行组件化改造的路由框架)</t>
         </is>
       </c>
-      <c r="V76" t="n">
+      <c r="V76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6249,7 +6330,7 @@
           <t>Luban(鲁班)—Image compression with efficiency very close to WeChat Moments/可能是最接近微信朋友圈的图片压缩算法</t>
         </is>
       </c>
-      <c r="V77" t="n">
+      <c r="V77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6325,7 +6406,7 @@
           <t>A complete native navigation solution for React Native</t>
         </is>
       </c>
-      <c r="V78" t="n">
+      <c r="V78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6401,7 +6482,7 @@
           <t>This is a picker view for android , support linkage effect, timepicker and optionspicker.（时间选择器、省市区三级联动）</t>
         </is>
       </c>
-      <c r="V79" t="n">
+      <c r="V79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6477,7 +6558,7 @@
           <t>《史上最简单的Spring Cloud教程源码》</t>
         </is>
       </c>
-      <c r="V80" t="n">
+      <c r="V80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6553,8 +6634,10 @@
           <t>APM, Application Performance Monitoring System</t>
         </is>
       </c>
-      <c r="V81" t="n">
-        <v>31</v>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -6629,7 +6712,7 @@
           <t>Free universal database tool and SQL client</t>
         </is>
       </c>
-      <c r="V82" t="n">
+      <c r="V82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6705,7 +6788,7 @@
           <t>Realm is a mobile database: a replacement for SQLite &amp; ORMs</t>
         </is>
       </c>
-      <c r="V83" t="n">
+      <c r="V83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6781,8 +6864,10 @@
           <t>Apache Flink</t>
         </is>
       </c>
-      <c r="V84" t="n">
-        <v>96</v>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -6857,7 +6942,7 @@
           <t>GraalVM: Run Programs Faster Anywhere :rocket:</t>
         </is>
       </c>
-      <c r="V85" t="n">
+      <c r="V85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6933,7 +7018,7 @@
           <t>A Java 8+ Jar &amp; Android APK Reverse Engineering Suite (Decompiler, Editor, Debugger &amp; More)</t>
         </is>
       </c>
-      <c r="V86" t="n">
+      <c r="V86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7009,7 +7094,7 @@
           <t>An Asynchronous HTTP Library for Android</t>
         </is>
       </c>
-      <c r="V87" t="n">
+      <c r="V87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7085,7 +7170,7 @@
           <t>A lightweight distributed task scheduling framework.（分布式任务调度平台XXL-JOB）</t>
         </is>
       </c>
-      <c r="V88" t="n">
+      <c r="V88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7161,7 +7246,7 @@
           <t>简称 "DoKit" 。一款功能齐全的客户端（ iOS 、Android、微信小程序 ）研发助手，你值得拥有。</t>
         </is>
       </c>
-      <c r="V89" t="n">
+      <c r="V89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7237,7 +7322,7 @@
           <t>Vert.x is a tool-kit for building reactive applications on the JVM</t>
         </is>
       </c>
-      <c r="V90" t="n">
+      <c r="V90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7313,7 +7398,7 @@
           <t>:fireworks: A well-designed local image and video selector for Android</t>
         </is>
       </c>
-      <c r="V91" t="n">
+      <c r="V91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7389,7 +7474,7 @@
           <t>快速、简单避免OOM的java处理Excel工具</t>
         </is>
       </c>
-      <c r="V92" t="n">
+      <c r="V92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7465,7 +7550,7 @@
           <t>Android开发人员不得不收集的工具类集合 | 支付宝支付 | 微信支付（统一下单） | 微信分享 | Zip4j压缩（支持分卷压缩与加密） | 一键集成UCrop选择圆形头像 | 一键集成二维码和条形码的扫描与生成 | 常用Dialog | WebView的封装可播放视频 | 仿斗鱼滑动验证码 | Toast封装 | 震动 | GPS | Location定位 | 图片缩放 | Exif 图片添加地理位置信息（经纬度） | 蛛网等级 | 颜色选择器 | ArcGis | VTPK | 编译运行一下说不定会找到惊喜</t>
         </is>
       </c>
-      <c r="V93" t="n">
+      <c r="V93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7541,7 +7626,7 @@
           <t xml:space="preserve">Project vlayout is a powerfull LayoutManager extension for RecyclerView, it provides a group of layouts for RecyclerView. Make it able to handle a complicate situation when grid, list and other layouts in the same recyclerview. </t>
         </is>
       </c>
-      <c r="V94" t="n">
+      <c r="V94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7617,7 +7702,7 @@
           <t>Android VideoPlayer MediaPlayer VideoView MediaView Float View And Fullscreen.高度自定义的开源安卓视频框架</t>
         </is>
       </c>
-      <c r="V95" t="n">
+      <c r="V95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7693,7 +7778,7 @@
           <t>The official home of the Presto distributed SQL query engine for big data</t>
         </is>
       </c>
-      <c r="V96" t="n">
+      <c r="V96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7769,8 +7854,8 @@
           <t>Spring Cloud Alibaba provides a one-stop solution for application development for the distributed solutions of Alibaba middleware.</t>
         </is>
       </c>
-      <c r="V97" t="n">
-        <v>31.5</v>
+      <c r="V97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -7845,7 +7930,7 @@
           <t>Apache Hadoop</t>
         </is>
       </c>
-      <c r="V98" t="n">
+      <c r="V98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7921,7 +8006,7 @@
           <t>又一个小商城。litemall = Spring Boot后端 + Vue管理员前端 + 微信小程序用户前端 + Vue用户移动端</t>
         </is>
       </c>
-      <c r="V99" t="n">
+      <c r="V99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7997,7 +8082,7 @@
           <t>循序渐进，学习Spring Boot、Spring Boot &amp; Shiro、Spring Cloud、Spring Security &amp; Spring Security OAuth2，博客Spring系列源码</t>
         </is>
       </c>
-      <c r="V100" t="n">
+      <c r="V100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8073,7 +8158,7 @@
           <t>An Android Animation library which easily add itemanimator to RecyclerView items.</t>
         </is>
       </c>
-      <c r="V101" t="n">
+      <c r="V101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8149,7 +8234,7 @@
           <t>open-source electronics prototyping platform</t>
         </is>
       </c>
-      <c r="V102" t="n">
+      <c r="V102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8225,8 +8310,10 @@
           <t>Most popular Mocking framework for unit tests written in Java</t>
         </is>
       </c>
-      <c r="V103" t="n">
-        <v>86</v>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -8301,7 +8388,7 @@
           <t>Simple annotation-based API to handle runtime permissions.</t>
         </is>
       </c>
-      <c r="V104" t="n">
+      <c r="V104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8377,7 +8464,7 @@
           <t>PocketHub Android App</t>
         </is>
       </c>
-      <c r="V105" t="n">
+      <c r="V105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8453,8 +8540,8 @@
           <t xml:space="preserve">APM, (Application Performance Management) tool for large-scale distributed systems written in Java. </t>
         </is>
       </c>
-      <c r="V106" t="n">
-        <v>42.86</v>
+      <c r="V106" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -8529,7 +8616,7 @@
           <t>Image Cropping Library for Android</t>
         </is>
       </c>
-      <c r="V107" t="n">
+      <c r="V107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8605,7 +8692,7 @@
           <t>提高 Android UI 开发效率的 UI 库</t>
         </is>
       </c>
-      <c r="V108" t="n">
+      <c r="V108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8681,7 +8768,7 @@
           <t>An Android TabLayout Lib</t>
         </is>
       </c>
-      <c r="V109" t="n">
+      <c r="V109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8757,7 +8844,7 @@
           <t>✍ Halo 一款现代化的个人独立博客系统</t>
         </is>
       </c>
-      <c r="V110" t="n">
+      <c r="V110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8833,8 +8920,8 @@
           <t>A lightweight powerful flow control component enabling reliability and monitoring for microservices. (轻量级的流量控制、熔断降级 Java 库)</t>
         </is>
       </c>
-      <c r="V111" t="n">
-        <v>48.27</v>
+      <c r="V111" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -8909,7 +8996,7 @@
           <t>A powerful library that manage Fragment for Android!</t>
         </is>
       </c>
-      <c r="V112" t="n">
+      <c r="V112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8985,7 +9072,7 @@
           <t>This is a library with components of Android L to you use in android 2.2</t>
         </is>
       </c>
-      <c r="V113" t="n">
+      <c r="V113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9061,7 +9148,7 @@
           <t>Android runtime permissions powered by RxJava2</t>
         </is>
       </c>
-      <c r="V114" t="n">
+      <c r="V114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9137,7 +9224,7 @@
           <t>To Be Top Javaer - Java工程师成神之路</t>
         </is>
       </c>
-      <c r="V115" t="n">
+      <c r="V115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9213,7 +9300,7 @@
           <t>Android广告图片轮播控件，支持无限循环和多种主题，可以灵活设置轮播样式、动画、轮播和切换时间、位置、图片加载框架等！</t>
         </is>
       </c>
-      <c r="V116" t="n">
+      <c r="V116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9289,7 +9376,7 @@
           <t>Multitask、MultiThread(MultiConnection)、Breakpoint-resume、High-concurrency、Simple to use、Single/NotSingle-process</t>
         </is>
       </c>
-      <c r="V117" t="n">
+      <c r="V117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9365,7 +9452,7 @@
           <t>A tool for reverse engineering Android apk files</t>
         </is>
       </c>
-      <c r="V118" t="n">
+      <c r="V118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9441,7 +9528,7 @@
           <t>Distributed database middleware</t>
         </is>
       </c>
-      <c r="V119" t="n">
+      <c r="V119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9517,7 +9604,7 @@
           <t xml:space="preserve">⚔️ A common architecture for Android applications developing based on MVP, integrates many open source projects, to make your developing quicker and easier (一个整合了大量主流开源项目高度可配置化的 Android MVP 快速集成框架). </t>
         </is>
       </c>
-      <c r="V120" t="n">
+      <c r="V120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9589,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="U121" t="inlineStr"/>
-      <c r="V121" t="n">
+      <c r="V121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9665,7 +9752,7 @@
           <t>an easy-to-use dynamic service discovery, configuration and service management platform for building cloud native applications.</t>
         </is>
       </c>
-      <c r="V122" t="n">
+      <c r="V122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9741,8 +9828,10 @@
           <t>Apache Druid (Incubating) - Column oriented distributed data store ideal for powering interactive applications</t>
         </is>
       </c>
-      <c r="V123" t="n">
-        <v>71</v>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -9817,7 +9906,7 @@
           <t>Guice (pronounced 'juice') is a lightweight dependency injection framework for Java 6 and above, brought to you by Google.</t>
         </is>
       </c>
-      <c r="V124" t="n">
+      <c r="V124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9893,7 +9982,7 @@
           <t>A blazingly small and sane redis java client</t>
         </is>
       </c>
-      <c r="V125" t="n">
+      <c r="V125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9969,7 +10058,7 @@
           <t>A simple expressive web framework for java. News: Spark now has a kotlin DSL https://github.com/perwendel/spark-kotlin</t>
         </is>
       </c>
-      <c r="V126" t="n">
+      <c r="V126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10045,7 +10134,7 @@
           <t>Tink is a multi-language, cross-platform, open source library that provides cryptographic APIs that are secure, easy to use correctly, and hard(er) to misuse.</t>
         </is>
       </c>
-      <c r="V127" t="n">
+      <c r="V127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10121,7 +10210,7 @@
           <t>AWS Service registry for resilient mid-tier load balancing and failover.</t>
         </is>
       </c>
-      <c r="V128" t="n">
+      <c r="V128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10197,7 +10286,7 @@
           <t>🔥 A low-cost Android screen adaptation solution (今日头条屏幕适配方案终极版，一个极低成本的 Android 屏幕适配方案).</t>
         </is>
       </c>
-      <c r="V129" t="n">
+      <c r="V129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10273,7 +10362,7 @@
           <t>A scalable web crawler framework for Java.</t>
         </is>
       </c>
-      <c r="V130" t="n">
+      <c r="V130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10349,11 +10438,11 @@
           <t>Very spicy additions to the Java programming language.</t>
         </is>
       </c>
-      <c r="V131" t="n">
+      <c r="V131" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>